--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Week1" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>Week</t>
   </si>
@@ -58,12 +59,73 @@
   </si>
   <si>
     <t>QUEUED</t>
+  </si>
+  <si>
+    <t>test_id</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>sub_test_name</t>
+  </si>
+  <si>
+    <t>collection_status</t>
+  </si>
+  <si>
+    <t>labeling_status</t>
+  </si>
+  <si>
+    <t>upload_status</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>Driver ID</t>
+  </si>
+  <si>
+    <t>COLLECTED</t>
+  </si>
+  <si>
+    <t>RE-LABEL</t>
+  </si>
+  <si>
+    <t>Face Occlusion</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>UPLOADED</t>
+  </si>
+  <si>
+    <t>Head Pose</t>
+  </si>
+  <si>
+    <t>Eye Gaze</t>
+  </si>
+  <si>
+    <t>ASSIGNED</t>
+  </si>
+  <si>
+    <t>Driving</t>
+  </si>
+  <si>
+    <t>Type 2</t>
+  </si>
+  <si>
+    <t>Type 3</t>
+  </si>
+  <si>
+    <t>Week1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
@@ -383,75 +445,625 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <f>COUNTIFS(Week1!D2:D41,"SCHEDULED")</f>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <f>COUNTIFS(Week1!D2:D41,"COLLECTED",Week1!E2:E41,"")</f>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <f>COUNTIFS(Week1!D2:D41,"CORRUPTED")</f>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <f>COUNTIFS(Week1!E2:E41,"RAW")</f>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <f>COUNTIFS(Week1!E2:E41,"ASSIGNED")</f>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <f>COUNTIFS(Week1!E2:E41,"LABELED")</f>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <f>COUNTIFS(Week1!E2:E41,"RE-LABEL")</f>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <f>COUNTIFS(Week1!E2:E41,"GOOD",Week1!F2:F41,"")</f>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10">
+        <f>COUNTIFS(Week1!F2:F41,"QUEUED")</f>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <f>COUNTIFS(Week1!F2:F41,"UPLOADED")</f>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <f>COUNTIFS(Week1!D2:D41,"")</f>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
+      <c r="B13">
+        <f>COUNT(Week1!A2:A3000)</f>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="7.22265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.21875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.72265625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Report.xlsx
+++ b/Report.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Week1" r:id="rId5" sheetId="2"/>
+    <sheet name="Week2" r:id="rId6" sheetId="3"/>
+    <sheet name="Week3" r:id="rId7" sheetId="4"/>
+    <sheet name="Week4" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="36">
   <si>
     <t>Week</t>
   </si>
@@ -119,6 +122,15 @@
   </si>
   <si>
     <t>Week1</t>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>Week4</t>
   </si>
 </sst>
 </file>
@@ -172,6 +184,740 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="false"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>one</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:smooth val="false"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="true"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="false"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Week3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Week3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$C$1:$C$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Week3</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$1:$D$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:smooth val="false"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="true"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="false"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Week4</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Week4</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$C$1:$C$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Week4</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$1:$D$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Week4</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$E$1:$E$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:smooth val="false"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="true"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="6934200" cy="3810000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="6934200" cy="3810000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="6934200" cy="3810000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
@@ -455,6 +1201,15 @@
       <c r="B1" t="s">
         <v>32</v>
       </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -463,6 +1218,15 @@
       <c r="B2">
         <f>COUNTIFS(Week1!D2:D41,"SCHEDULED")</f>
       </c>
+      <c r="C2">
+        <f>COUNTIFS(Week2!D2:D41,"SCHEDULED")</f>
+      </c>
+      <c r="D2">
+        <f>COUNTIFS(Week3!D2:D41,"SCHEDULED")</f>
+      </c>
+      <c r="E2">
+        <f>COUNTIFS(Week4!D2:D41,"SCHEDULED")</f>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -471,6 +1235,15 @@
       <c r="B3">
         <f>COUNTIFS(Week1!D2:D41,"COLLECTED",Week1!E2:E41,"")</f>
       </c>
+      <c r="C3">
+        <f>COUNTIFS(Week2!D2:D41,"COLLECTED",Week2!E2:E41,"")</f>
+      </c>
+      <c r="D3">
+        <f>COUNTIFS(Week3!D2:D41,"COLLECTED",Week3!E2:E41,"")</f>
+      </c>
+      <c r="E3">
+        <f>COUNTIFS(Week4!D2:D41,"COLLECTED",Week4!E2:E41,"")</f>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -479,6 +1252,15 @@
       <c r="B4">
         <f>COUNTIFS(Week1!D2:D41,"CORRUPTED")</f>
       </c>
+      <c r="C4">
+        <f>COUNTIFS(Week2!D2:D41,"CORRUPTED")</f>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS(Week3!D2:D41,"CORRUPTED")</f>
+      </c>
+      <c r="E4">
+        <f>COUNTIFS(Week4!D2:D41,"CORRUPTED")</f>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -487,6 +1269,15 @@
       <c r="B5">
         <f>COUNTIFS(Week1!E2:E41,"RAW")</f>
       </c>
+      <c r="C5">
+        <f>COUNTIFS(Week2!E2:E41,"RAW")</f>
+      </c>
+      <c r="D5">
+        <f>COUNTIFS(Week3!E2:E41,"RAW")</f>
+      </c>
+      <c r="E5">
+        <f>COUNTIFS(Week4!E2:E41,"RAW")</f>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -495,6 +1286,15 @@
       <c r="B6">
         <f>COUNTIFS(Week1!E2:E41,"ASSIGNED")</f>
       </c>
+      <c r="C6">
+        <f>COUNTIFS(Week2!E2:E41,"ASSIGNED")</f>
+      </c>
+      <c r="D6">
+        <f>COUNTIFS(Week3!E2:E41,"ASSIGNED")</f>
+      </c>
+      <c r="E6">
+        <f>COUNTIFS(Week4!E2:E41,"ASSIGNED")</f>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -503,6 +1303,15 @@
       <c r="B7">
         <f>COUNTIFS(Week1!E2:E41,"LABELED")</f>
       </c>
+      <c r="C7">
+        <f>COUNTIFS(Week2!E2:E41,"LABELED")</f>
+      </c>
+      <c r="D7">
+        <f>COUNTIFS(Week3!E2:E41,"LABELED")</f>
+      </c>
+      <c r="E7">
+        <f>COUNTIFS(Week4!E2:E41,"LABELED")</f>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -511,6 +1320,15 @@
       <c r="B8">
         <f>COUNTIFS(Week1!E2:E41,"RE-LABEL")</f>
       </c>
+      <c r="C8">
+        <f>COUNTIFS(Week2!E2:E41,"RE-LABEL")</f>
+      </c>
+      <c r="D8">
+        <f>COUNTIFS(Week3!E2:E41,"RE-LABEL")</f>
+      </c>
+      <c r="E8">
+        <f>COUNTIFS(Week4!E2:E41,"RE-LABEL")</f>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -519,6 +1337,15 @@
       <c r="B9">
         <f>COUNTIFS(Week1!E2:E41,"GOOD",Week1!F2:F41,"")</f>
       </c>
+      <c r="C9">
+        <f>COUNTIFS(Week2!E2:E41,"GOOD",Week2!F2:F41,"")</f>
+      </c>
+      <c r="D9">
+        <f>COUNTIFS(Week3!E2:E41,"GOOD",Week3!F2:F41,"")</f>
+      </c>
+      <c r="E9">
+        <f>COUNTIFS(Week4!E2:E41,"GOOD",Week4!F2:F41,"")</f>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -527,6 +1354,15 @@
       <c r="B10">
         <f>COUNTIFS(Week1!F2:F41,"QUEUED")</f>
       </c>
+      <c r="C10">
+        <f>COUNTIFS(Week2!F2:F41,"QUEUED")</f>
+      </c>
+      <c r="D10">
+        <f>COUNTIFS(Week3!F2:F41,"QUEUED")</f>
+      </c>
+      <c r="E10">
+        <f>COUNTIFS(Week4!F2:F41,"QUEUED")</f>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -535,6 +1371,15 @@
       <c r="B11">
         <f>COUNTIFS(Week1!F2:F41,"UPLOADED")</f>
       </c>
+      <c r="C11">
+        <f>COUNTIFS(Week2!F2:F41,"UPLOADED")</f>
+      </c>
+      <c r="D11">
+        <f>COUNTIFS(Week3!F2:F41,"UPLOADED")</f>
+      </c>
+      <c r="E11">
+        <f>COUNTIFS(Week4!F2:F41,"UPLOADED")</f>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -543,6 +1388,15 @@
       <c r="B12">
         <f>COUNTIFS(Week1!D2:D41,"")</f>
       </c>
+      <c r="C12">
+        <f>COUNTIFS(Week2!D2:D41,"")</f>
+      </c>
+      <c r="D12">
+        <f>COUNTIFS(Week3!D2:D41,"")</f>
+      </c>
+      <c r="E12">
+        <f>COUNTIFS(Week4!D2:D41,"")</f>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -551,13 +1405,1556 @@
       <c r="B13">
         <f>COUNT(Week1!A2:A3000)</f>
       </c>
+      <c r="C13">
+        <f>COUNT(Week2!A2:A3000)</f>
+      </c>
+      <c r="D13">
+        <f>COUNT(Week3!A2:A3000)</f>
+      </c>
+      <c r="E13">
+        <f>COUNT(Week4!A2:A3000)</f>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.22265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.46875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.72265625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.22265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.46875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.72265625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.22265625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.46875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.890625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.72265625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F41"/>
   <sheetViews>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,10 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Week1" r:id="rId5" sheetId="2"/>
-    <sheet name="Week2" r:id="rId6" sheetId="3"/>
-    <sheet name="Week3" r:id="rId7" sheetId="4"/>
-    <sheet name="Week4" r:id="rId8" sheetId="5"/>
+    <sheet name="Week1" sheetId="2" r:id="rId2"/>
+    <sheet name="Week2" sheetId="3" r:id="rId3"/>
+    <sheet name="Week3" sheetId="4" r:id="rId4"/>
+    <sheet name="Week4" sheetId="5" r:id="rId5"/>
+    <sheet name="Week5" sheetId="6" r:id="rId6"/>
+    <sheet name="Week6" r:id="rId11" sheetId="7"/>
+    <sheet name="Week7" r:id="rId12" sheetId="8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="39">
   <si>
     <t>Week</t>
   </si>
@@ -132,6 +135,15 @@
   <si>
     <t>Week4</t>
   </si>
+  <si>
+    <t>Week5</t>
+  </si>
+  <si>
+    <t>Week6</t>
+  </si>
+  <si>
+    <t>Week7</t>
+  </si>
 </sst>
 </file>
 
@@ -197,7 +209,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>one</c:v>
+            <c:v>Week6</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -213,6 +225,306 @@
           <c:val>
             <c:numRef>
               <c:f>Report!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Week6</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$C$1:$C$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Week6</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$1:$D$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Week6</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$E$1:$E$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Week6</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$F$1:$F$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Week6</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$G$1:$G$12</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
@@ -310,7 +622,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Week3</c:v>
+            <c:v>Week7</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -370,7 +682,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Week3</c:v>
+            <c:v>Week7</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -430,7 +742,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Week3</c:v>
+            <c:v>Week7</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -486,244 +798,11 @@
           </c:val>
           <c:smooth val="false"/>
         </c:ser>
-        <c:smooth val="false"/>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="false"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="false"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="false"/>
-    </c:legend>
-    <c:plotVisOnly val="true"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:varyColors val="false"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Week4</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Report!$A$1:$A$12</c:f>
-              <c:numCache>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$B$1:$B$12</c:f>
-              <c:numCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>35.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="false"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Week4</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Report!$A$1:$A$12</c:f>
-              <c:numCache>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$C$1:$C$12</c:f>
-              <c:numCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>35.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="false"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Week4</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Report!$A$1:$A$12</c:f>
-              <c:numCache>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Report!$D$1:$D$12</c:f>
-              <c:numCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>35.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="false"/>
-        </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Week4</c:v>
+            <c:v>Week7</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -739,6 +818,186 @@
           <c:val>
             <c:numRef>
               <c:f>Report!$E$1:$E$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Week7</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$F$1:$F$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Week7</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$G$1:$G$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Week7</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$H$1:$H$12</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
@@ -829,67 +1088,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm0"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="6934200" cy="3810000"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm0"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="6934200" cy="3810000"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -907,11 +1106,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="6934200" cy="3810000"/>
+        <a:ext cx="9601200" cy="3810000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="9601200" cy="3810000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1183,9 +1412,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1194,7 +1423,7 @@
     <col min="1" max="1" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,209 +1439,386 @@
       <c r="E1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <f>COUNTIFS(Week1!D2:D41,"SCHEDULED")</f>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>COUNTIFS(Week2!D2:D41,"SCHEDULED")</f>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>COUNTIFS(Week3!D2:D41,"SCHEDULED")</f>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>COUNTIFS(Week4!D2:D41,"SCHEDULED")</f>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIFS(Week5!D2:D41,"SCHEDULED")</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIFS(Week6!D2:D41,"SCHEDULED")</f>
+      </c>
+      <c r="H2">
+        <f>COUNTIFS(Week7!D2:D41,"SCHEDULED")</f>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <f>COUNTIFS(Week1!D2:D41,"COLLECTED",Week1!E2:E41,"")</f>
+        <v>1</v>
       </c>
       <c r="C3">
         <f>COUNTIFS(Week2!D2:D41,"COLLECTED",Week2!E2:E41,"")</f>
+        <v>1</v>
       </c>
       <c r="D3">
         <f>COUNTIFS(Week3!D2:D41,"COLLECTED",Week3!E2:E41,"")</f>
+        <v>1</v>
       </c>
       <c r="E3">
         <f>COUNTIFS(Week4!D2:D41,"COLLECTED",Week4!E2:E41,"")</f>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIFS(Week5!D2:D41,"COLLECTED",Week5!E2:E41,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIFS(Week6!D2:D41,"COLLECTED",Week6!E2:E41,"")</f>
+      </c>
+      <c r="H3">
+        <f>COUNTIFS(Week7!D2:D41,"COLLECTED",Week7!E2:E41,"")</f>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <f>COUNTIFS(Week1!D2:D41,"CORRUPTED")</f>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>COUNTIFS(Week2!D2:D41,"CORRUPTED")</f>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>COUNTIFS(Week3!D2:D41,"CORRUPTED")</f>
+        <v>0</v>
       </c>
       <c r="E4">
         <f>COUNTIFS(Week4!D2:D41,"CORRUPTED")</f>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIFS(Week5!D2:D41,"CORRUPTED")</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIFS(Week6!D2:D41,"CORRUPTED")</f>
+      </c>
+      <c r="H4">
+        <f>COUNTIFS(Week7!D2:D41,"CORRUPTED")</f>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <f>COUNTIFS(Week1!E2:E41,"RAW")</f>
+        <v>0</v>
       </c>
       <c r="C5">
         <f>COUNTIFS(Week2!E2:E41,"RAW")</f>
+        <v>0</v>
       </c>
       <c r="D5">
         <f>COUNTIFS(Week3!E2:E41,"RAW")</f>
+        <v>0</v>
       </c>
       <c r="E5">
         <f>COUNTIFS(Week4!E2:E41,"RAW")</f>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIFS(Week5!E2:E41,"RAW")</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIFS(Week6!E2:E41,"RAW")</f>
+      </c>
+      <c r="H5">
+        <f>COUNTIFS(Week7!E2:E41,"RAW")</f>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <f>COUNTIFS(Week1!E2:E41,"ASSIGNED")</f>
+        <v>1</v>
       </c>
       <c r="C6">
         <f>COUNTIFS(Week2!E2:E41,"ASSIGNED")</f>
+        <v>1</v>
       </c>
       <c r="D6">
         <f>COUNTIFS(Week3!E2:E41,"ASSIGNED")</f>
+        <v>1</v>
       </c>
       <c r="E6">
         <f>COUNTIFS(Week4!E2:E41,"ASSIGNED")</f>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIFS(Week5!E2:E41,"ASSIGNED")</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIFS(Week6!E2:E41,"ASSIGNED")</f>
+      </c>
+      <c r="H6">
+        <f>COUNTIFS(Week7!E2:E41,"ASSIGNED")</f>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <f>COUNTIFS(Week1!E2:E41,"LABELED")</f>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>COUNTIFS(Week2!E2:E41,"LABELED")</f>
+        <v>0</v>
       </c>
       <c r="D7">
         <f>COUNTIFS(Week3!E2:E41,"LABELED")</f>
+        <v>0</v>
       </c>
       <c r="E7">
         <f>COUNTIFS(Week4!E2:E41,"LABELED")</f>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIFS(Week5!E2:E41,"LABELED")</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIFS(Week6!E2:E41,"LABELED")</f>
+      </c>
+      <c r="H7">
+        <f>COUNTIFS(Week7!E2:E41,"LABELED")</f>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <f>COUNTIFS(Week1!E2:E41,"RE-LABEL")</f>
+        <v>2</v>
       </c>
       <c r="C8">
         <f>COUNTIFS(Week2!E2:E41,"RE-LABEL")</f>
+        <v>2</v>
       </c>
       <c r="D8">
         <f>COUNTIFS(Week3!E2:E41,"RE-LABEL")</f>
+        <v>2</v>
       </c>
       <c r="E8">
         <f>COUNTIFS(Week4!E2:E41,"RE-LABEL")</f>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIFS(Week5!E2:E41,"RE-LABEL")</f>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIFS(Week6!E2:E41,"RE-LABEL")</f>
+      </c>
+      <c r="H8">
+        <f>COUNTIFS(Week7!E2:E41,"RE-LABEL")</f>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <f>COUNTIFS(Week1!E2:E41,"GOOD",Week1!F2:F41,"")</f>
+        <v>0</v>
       </c>
       <c r="C9">
         <f>COUNTIFS(Week2!E2:E41,"GOOD",Week2!F2:F41,"")</f>
+        <v>0</v>
       </c>
       <c r="D9">
         <f>COUNTIFS(Week3!E2:E41,"GOOD",Week3!F2:F41,"")</f>
+        <v>0</v>
       </c>
       <c r="E9">
         <f>COUNTIFS(Week4!E2:E41,"GOOD",Week4!F2:F41,"")</f>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIFS(Week5!E2:E41,"GOOD",Week5!F2:F41,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIFS(Week6!E2:E41,"GOOD",Week6!F2:F41,"")</f>
+      </c>
+      <c r="H9">
+        <f>COUNTIFS(Week7!E2:E41,"GOOD",Week7!F2:F41,"")</f>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <f>COUNTIFS(Week1!F2:F41,"QUEUED")</f>
+        <v>0</v>
       </c>
       <c r="C10">
         <f>COUNTIFS(Week2!F2:F41,"QUEUED")</f>
+        <v>0</v>
       </c>
       <c r="D10">
         <f>COUNTIFS(Week3!F2:F41,"QUEUED")</f>
+        <v>0</v>
       </c>
       <c r="E10">
         <f>COUNTIFS(Week4!F2:F41,"QUEUED")</f>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIFS(Week5!F2:F41,"QUEUED")</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>COUNTIFS(Week6!F2:F41,"QUEUED")</f>
+      </c>
+      <c r="H10">
+        <f>COUNTIFS(Week7!F2:F41,"QUEUED")</f>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <f>COUNTIFS(Week1!F2:F41,"UPLOADED")</f>
+        <v>1</v>
       </c>
       <c r="C11">
         <f>COUNTIFS(Week2!F2:F41,"UPLOADED")</f>
+        <v>1</v>
       </c>
       <c r="D11">
         <f>COUNTIFS(Week3!F2:F41,"UPLOADED")</f>
+        <v>1</v>
       </c>
       <c r="E11">
         <f>COUNTIFS(Week4!F2:F41,"UPLOADED")</f>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIFS(Week5!F2:F41,"UPLOADED")</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>COUNTIFS(Week6!F2:F41,"UPLOADED")</f>
+      </c>
+      <c r="H11">
+        <f>COUNTIFS(Week7!F2:F41,"UPLOADED")</f>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <f>COUNTIFS(Week1!D2:D41,"")</f>
+        <v>35</v>
       </c>
       <c r="C12">
         <f>COUNTIFS(Week2!D2:D41,"")</f>
+        <v>35</v>
       </c>
       <c r="D12">
         <f>COUNTIFS(Week3!D2:D41,"")</f>
+        <v>35</v>
       </c>
       <c r="E12">
         <f>COUNTIFS(Week4!D2:D41,"")</f>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIFS(Week5!D2:D41,"")</f>
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIFS(Week6!D2:D41,"")</f>
+      </c>
+      <c r="H12">
+        <f>COUNTIFS(Week7!D2:D41,"")</f>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13">
         <f>COUNT(Week1!A2:A3000)</f>
+        <v>40</v>
       </c>
       <c r="C13">
         <f>COUNT(Week2!A2:A3000)</f>
+        <v>40</v>
       </c>
       <c r="D13">
         <f>COUNT(Week3!A2:A3000)</f>
+        <v>40</v>
       </c>
       <c r="E13">
         <f>COUNT(Week4!A2:A3000)</f>
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <f>COUNT(Week5!A2:A3000)</f>
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <f>COUNT(Week6!A2:A3000)</f>
+      </c>
+      <c r="H13">
+        <f>COUNT(Week7!A2:A3000)</f>
       </c>
     </row>
   </sheetData>
@@ -1422,22 +1828,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.22265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.46875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.890625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.72265625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1457,9 +1863,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1474,9 +1880,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -1494,9 +1900,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.0</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1511,9 +1917,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1528,9 +1934,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1.0</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1542,9 +1948,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2.0</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1553,9 +1959,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2.0</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1564,9 +1970,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2.0</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1575,9 +1981,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2.0</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1586,9 +1992,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2.0</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1597,9 +2003,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3.0</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -1608,9 +2014,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3.0</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -1619,9 +2025,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3.0</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1630,9 +2036,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3.0</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1641,9 +2047,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3.0</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1652,9 +2058,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>7.0</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -1663,9 +2069,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>7.0</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -1674,9 +2080,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>7.0</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -1685,9 +2091,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>7.0</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -1696,9 +2102,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>7.0</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1707,9 +2113,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>8.0</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -1718,9 +2124,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>8.0</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -1729,9 +2135,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>8.0</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -1740,9 +2146,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>8.0</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -1751,9 +2157,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>8.0</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -1762,9 +2168,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>61.0</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -1773,9 +2179,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>61.0</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -1784,9 +2190,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>61.0</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -1795,9 +2201,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>61.0</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -1806,9 +2212,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>61.0</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -1817,9 +2223,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>100.0</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -1828,9 +2234,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>100.0</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -1839,9 +2245,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>100.0</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -1850,9 +2256,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>100.0</v>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>100</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -1861,9 +2267,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>100.0</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -1872,9 +2278,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>103.0</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>103</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -1883,9 +2289,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>103.0</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>103</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -1894,9 +2300,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>103.0</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>103</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -1905,9 +2311,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>103.0</v>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>103</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -1916,9 +2322,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>103.0</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>103</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -1928,27 +2334,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.22265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.46875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.890625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.72265625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1968,9 +2374,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1985,9 +2391,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -2005,9 +2411,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.0</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2022,9 +2428,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -2039,9 +2445,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1.0</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -2053,9 +2459,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2.0</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -2064,9 +2470,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2.0</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -2075,9 +2481,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2.0</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -2086,9 +2492,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2.0</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -2097,9 +2503,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2.0</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -2108,9 +2514,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3.0</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -2119,9 +2525,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3.0</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
@@ -2130,9 +2536,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3.0</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -2141,9 +2547,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3.0</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -2152,9 +2558,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3.0</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -2163,9 +2569,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>7.0</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -2174,9 +2580,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>7.0</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -2185,9 +2591,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>7.0</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -2196,9 +2602,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>7.0</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -2207,9 +2613,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>7.0</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -2218,9 +2624,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>8.0</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
@@ -2229,9 +2635,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>8.0</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -2240,9 +2646,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>8.0</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -2251,9 +2657,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>8.0</v>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -2262,9 +2668,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>8.0</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -2273,9 +2679,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>61.0</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
@@ -2284,9 +2690,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>61.0</v>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
@@ -2295,9 +2701,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>61.0</v>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
@@ -2306,9 +2712,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>61.0</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
@@ -2317,9 +2723,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>61.0</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -2328,9 +2734,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>100.0</v>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -2339,9 +2745,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>100.0</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -2350,9 +2756,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>100.0</v>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -2361,9 +2767,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>100.0</v>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>100</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -2372,9 +2778,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>100.0</v>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
@@ -2383,9 +2789,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>103.0</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>103</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -2394,9 +2800,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>103.0</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>103</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -2405,9 +2811,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>103.0</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>103</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -2416,9 +2822,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>103.0</v>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>103</v>
       </c>
       <c r="B40" t="s">
         <v>19</v>
@@ -2427,9 +2833,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>103.0</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>103</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -2439,11 +2845,1544 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -2954,7 +4893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F41"/>
   <sheetViews>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -15,6 +15,8 @@
     <sheet name="Week5" sheetId="6" r:id="rId6"/>
     <sheet name="Week6" r:id="rId11" sheetId="7"/>
     <sheet name="Week7" r:id="rId12" sheetId="8"/>
+    <sheet name="Week8" r:id="rId13" sheetId="9"/>
+    <sheet name="Week9" r:id="rId14" sheetId="10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="41">
   <si>
     <t>Week</t>
   </si>
@@ -144,6 +146,12 @@
   <si>
     <t>Week7</t>
   </si>
+  <si>
+    <t>Week8</t>
+  </si>
+  <si>
+    <t>Week9</t>
+  </si>
 </sst>
 </file>
 
@@ -998,6 +1006,1123 @@
           <c:val>
             <c:numRef>
               <c:f>Report!$H$1:$H$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:smooth val="false"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="true"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="false"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Week8</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Week8</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$C$1:$C$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Week8</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$1:$D$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Week8</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$E$1:$E$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Week8</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$F$1:$F$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Week8</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$G$1:$G$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Week8</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$H$1:$H$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Week8</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$I$1:$I$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="true"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="false"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Week9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Week9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$C$1:$C$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Week9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$D$1:$D$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Week9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$E$1:$E$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Week9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$F$1:$F$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Week9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$G$1:$G$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Week9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$H$1:$H$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Week9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$I$1:$I$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="false"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Week9</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Report!$A$1:$A$12</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$J$1:$J$12</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
@@ -1141,6 +2266,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="9601200" cy="3810000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="Diagramm0"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="9601200" cy="3810000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1412,7 +2597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
@@ -1448,6 +2633,12 @@
       <c r="H1" t="s">
         <v>38</v>
       </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1479,6 +2670,12 @@
       <c r="H2">
         <f>COUNTIFS(Week7!D2:D41,"SCHEDULED")</f>
       </c>
+      <c r="I2">
+        <f>COUNTIFS(Week8!D2:D41,"SCHEDULED")</f>
+      </c>
+      <c r="J2">
+        <f>COUNTIFS(Week9!D2:D41,"SCHEDULED")</f>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1510,6 +2707,12 @@
       <c r="H3">
         <f>COUNTIFS(Week7!D2:D41,"COLLECTED",Week7!E2:E41,"")</f>
       </c>
+      <c r="I3">
+        <f>COUNTIFS(Week8!D2:D41,"COLLECTED",Week8!E2:E41,"")</f>
+      </c>
+      <c r="J3">
+        <f>COUNTIFS(Week9!D2:D41,"COLLECTED",Week9!E2:E41,"")</f>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1541,6 +2744,12 @@
       <c r="H4">
         <f>COUNTIFS(Week7!D2:D41,"CORRUPTED")</f>
       </c>
+      <c r="I4">
+        <f>COUNTIFS(Week8!D2:D41,"CORRUPTED")</f>
+      </c>
+      <c r="J4">
+        <f>COUNTIFS(Week9!D2:D41,"CORRUPTED")</f>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1572,6 +2781,12 @@
       <c r="H5">
         <f>COUNTIFS(Week7!E2:E41,"RAW")</f>
       </c>
+      <c r="I5">
+        <f>COUNTIFS(Week8!E2:E41,"RAW")</f>
+      </c>
+      <c r="J5">
+        <f>COUNTIFS(Week9!E2:E41,"RAW")</f>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1603,6 +2818,12 @@
       <c r="H6">
         <f>COUNTIFS(Week7!E2:E41,"ASSIGNED")</f>
       </c>
+      <c r="I6">
+        <f>COUNTIFS(Week8!E2:E41,"ASSIGNED")</f>
+      </c>
+      <c r="J6">
+        <f>COUNTIFS(Week9!E2:E41,"ASSIGNED")</f>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1634,6 +2855,12 @@
       <c r="H7">
         <f>COUNTIFS(Week7!E2:E41,"LABELED")</f>
       </c>
+      <c r="I7">
+        <f>COUNTIFS(Week8!E2:E41,"LABELED")</f>
+      </c>
+      <c r="J7">
+        <f>COUNTIFS(Week9!E2:E41,"LABELED")</f>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1665,6 +2892,12 @@
       <c r="H8">
         <f>COUNTIFS(Week7!E2:E41,"RE-LABEL")</f>
       </c>
+      <c r="I8">
+        <f>COUNTIFS(Week8!E2:E41,"RE-LABEL")</f>
+      </c>
+      <c r="J8">
+        <f>COUNTIFS(Week9!E2:E41,"RE-LABEL")</f>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1696,6 +2929,12 @@
       <c r="H9">
         <f>COUNTIFS(Week7!E2:E41,"GOOD",Week7!F2:F41,"")</f>
       </c>
+      <c r="I9">
+        <f>COUNTIFS(Week8!E2:E41,"GOOD",Week8!F2:F41,"")</f>
+      </c>
+      <c r="J9">
+        <f>COUNTIFS(Week9!E2:E41,"GOOD",Week9!F2:F41,"")</f>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1727,6 +2966,12 @@
       <c r="H10">
         <f>COUNTIFS(Week7!F2:F41,"QUEUED")</f>
       </c>
+      <c r="I10">
+        <f>COUNTIFS(Week8!F2:F41,"QUEUED")</f>
+      </c>
+      <c r="J10">
+        <f>COUNTIFS(Week9!F2:F41,"QUEUED")</f>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1758,6 +3003,12 @@
       <c r="H11">
         <f>COUNTIFS(Week7!F2:F41,"UPLOADED")</f>
       </c>
+      <c r="I11">
+        <f>COUNTIFS(Week8!F2:F41,"UPLOADED")</f>
+      </c>
+      <c r="J11">
+        <f>COUNTIFS(Week9!F2:F41,"UPLOADED")</f>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1789,6 +3040,12 @@
       <c r="H12">
         <f>COUNTIFS(Week7!D2:D41,"")</f>
       </c>
+      <c r="I12">
+        <f>COUNTIFS(Week8!D2:D41,"")</f>
+      </c>
+      <c r="J12">
+        <f>COUNTIFS(Week9!D2:D41,"")</f>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1820,10 +3077,527 @@
       <c r="H13">
         <f>COUNT(Week7!A2:A3000)</f>
       </c>
+      <c r="I13">
+        <f>COUNT(Week8!A2:A3000)</f>
+      </c>
+      <c r="J13">
+        <f>COUNT(Week9!A2:A3000)</f>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="7.22265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.890625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.21875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.72265625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -4390,12 +6164,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.22265625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.46875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.890625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.546875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.72265625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.22265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.46875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.72265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4901,12 +6675,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.22265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.46875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.21875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.546875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.72265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.22265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.46875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.72265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5402,4 +7176,515 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.22265625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.46875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.890625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.21875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.72265625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>